--- a/model/results/mix4_ggpos_h2pos/v_sec.xlsx
+++ b/model/results/mix4_ggpos_h2pos/v_sec.xlsx
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999966</v>
       </c>
     </row>
     <row r="4">
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999992</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333332</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111109</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666664</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777782</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1632,19 +1632,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="11">
@@ -1657,7 +1657,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D11" t="n">
         <v>1.613168707482993</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265308</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="12">
@@ -1679,7 +1679,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D12" t="n">
         <v>1.613168707482993</v>
@@ -1698,19 +1698,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="14">
@@ -1723,7 +1723,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D14" t="n">
         <v>1.613168707482993</v>
@@ -1742,19 +1742,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D15" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="16">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D16" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="17">
@@ -1786,19 +1786,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="18">
@@ -1808,19 +1808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="19">
@@ -1833,7 +1833,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D19" t="n">
         <v>1.613168707482993</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="20">
@@ -1855,7 +1855,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D20" t="n">
         <v>1.613168707482993</v>
@@ -1877,7 +1877,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D21" t="n">
         <v>1.613168707482993</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="22">
@@ -1896,19 +1896,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="23">
@@ -1918,19 +1918,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D24" t="n">
         <v>1.613168707482993</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3626408163265306</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="25">
@@ -1965,7 +1965,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D25" t="n">
         <v>1.613168707482993</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3626408163265306</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="26">
@@ -1984,19 +1984,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="27">
@@ -2009,7 +2009,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D27" t="n">
         <v>1.613168707482993</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265309</v>
       </c>
     </row>
     <row r="28">
@@ -2031,7 +2031,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D28" t="n">
         <v>1.613168707482993</v>
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D29" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="30">
@@ -2075,7 +2075,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D30" t="n">
         <v>1.613168707482993</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="31">
@@ -2097,7 +2097,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D31" t="n">
         <v>1.613168707482993</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="32">
@@ -2119,7 +2119,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D32" t="n">
         <v>1.613168707482993</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="33">
@@ -2138,19 +2138,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="34">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -2182,19 +2182,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -2204,19 +2204,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="37">
@@ -2248,19 +2248,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="39">
@@ -2270,19 +2270,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="40">
@@ -2292,19 +2292,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="41">
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="42">
@@ -2336,19 +2336,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="43">
@@ -2358,19 +2358,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -2432,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000001</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999966</v>
       </c>
     </row>
     <row r="4">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999992</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111112</v>
+        <v>0.4527777777777781</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777781</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="11">
@@ -2627,7 +2627,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01227210884353747</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D11" t="n">
         <v>1.613168707482993</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265308</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="12">
@@ -2668,19 +2668,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="14">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.0122721088435368</v>
       </c>
       <c r="D15" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="16">
@@ -2734,19 +2734,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D16" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265315</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="17">
@@ -2756,19 +2756,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265316</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="18">
@@ -2778,19 +2778,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="19">
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265309</v>
       </c>
     </row>
     <row r="21">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +2866,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="23">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="24">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="25">
@@ -2954,19 +2954,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="27">
@@ -2976,19 +2976,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.325387755102041</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353697</v>
       </c>
       <c r="D27" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265277</v>
       </c>
     </row>
     <row r="28">
@@ -2998,19 +2998,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.325387755102041</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353697</v>
       </c>
       <c r="D28" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265277</v>
       </c>
     </row>
     <row r="29">
@@ -3020,19 +3020,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353753</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D29" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265313</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="30">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="31">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="32">
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="33">
@@ -3152,19 +3152,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000001</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999966</v>
       </c>
     </row>
     <row r="4">
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999992</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777781</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3572,19 +3572,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="11">
@@ -3597,7 +3597,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01227210884353747</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D11" t="n">
         <v>1.613168707482993</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265308</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="12">
@@ -3638,19 +3638,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="14">
@@ -3682,19 +3682,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.0122721088435368</v>
       </c>
       <c r="D15" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="16">
@@ -3704,19 +3704,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.325387755102042</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353696</v>
       </c>
       <c r="D16" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265315</v>
+        <v>0.3626408163265277</v>
       </c>
     </row>
     <row r="17">
@@ -3726,19 +3726,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265316</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="18">
@@ -3748,19 +3748,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="19">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="22">
@@ -3836,19 +3836,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="23">
@@ -3858,19 +3858,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="24">
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="25">
@@ -3924,19 +3924,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="27">
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="28">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="29">
@@ -3990,19 +3990,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353753</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D29" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265313</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="30">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="31">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="32">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="33">
@@ -4122,19 +4122,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -4372,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000001</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4394,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777857</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.921449140904069e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.07499999999996</v>
       </c>
     </row>
     <row r="4">
@@ -4416,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999992</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4435,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777781</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777781</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4542,19 +4542,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="11">
@@ -4564,19 +4564,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.325387755102041</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01227210884353747</v>
+        <v>0.01227210884353697</v>
       </c>
       <c r="D11" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265308</v>
+        <v>0.3626408163265277</v>
       </c>
     </row>
     <row r="12">
@@ -4608,19 +4608,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="14">
@@ -4636,7 +4636,7 @@
         <v>0.01227210884353741</v>
       </c>
       <c r="D14" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4652,19 +4652,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325387755102041</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353734</v>
       </c>
       <c r="D15" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265299</v>
       </c>
     </row>
     <row r="16">
@@ -4674,19 +4674,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D16" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265315</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="17">
@@ -4696,19 +4696,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265316</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="18">
@@ -4718,19 +4718,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="19">
@@ -4740,19 +4740,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.325387755102041</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353697</v>
       </c>
       <c r="D19" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265277</v>
       </c>
     </row>
     <row r="20">
@@ -4768,7 +4768,7 @@
         <v>0.01227210884353741</v>
       </c>
       <c r="D20" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4806,19 +4806,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="23">
@@ -4828,19 +4828,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="24">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3626408163265306</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="26">
@@ -4894,19 +4894,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="27">
@@ -4960,19 +4960,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353753</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D29" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265313</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="30">
@@ -5010,7 +5010,7 @@
         <v>0.01227210884353741</v>
       </c>
       <c r="D31" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -5092,19 +5092,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -5136,19 +5136,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -5342,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000001</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -5364,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999966</v>
       </c>
     </row>
     <row r="4">
@@ -5386,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777786</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
-        <v>6.108484567344871e-15</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999982</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5405,16 +5405,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111112</v>
+        <v>0.4527777777777781</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="6">
@@ -5430,13 +5430,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5512,19 +5512,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="11">
@@ -5540,13 +5540,13 @@
         <v>0.01227210884353741</v>
       </c>
       <c r="D11" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="12">
@@ -5556,19 +5556,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D12" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="13">
@@ -5578,19 +5578,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="14">
@@ -5600,19 +5600,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D14" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="15">
@@ -5622,19 +5622,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D15" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="16">
@@ -5644,19 +5644,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
         <v>0.01227210884353741</v>
       </c>
       <c r="D16" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="17">
@@ -5666,19 +5666,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="18">
@@ -5688,19 +5688,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="19">
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="21">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="22">
@@ -5776,19 +5776,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="23">
@@ -5798,19 +5798,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="24">
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3626408163265306</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="25">
@@ -5848,13 +5848,13 @@
         <v>0.01227210884353741</v>
       </c>
       <c r="D25" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3626408163265306</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="26">
@@ -5864,19 +5864,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="27">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="29">
@@ -5930,19 +5930,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353753</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D29" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="30">
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="31">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="32">
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="33">
@@ -6106,19 +6106,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -6312,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6356,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777759</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999982</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -6378,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666666</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222218</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D10" t="n">
         <v>1.613168707482993</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="11">
@@ -6507,16 +6507,16 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D11" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="12">
@@ -6529,7 +6529,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D12" t="n">
         <v>1.613168707482993</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="13">
@@ -6551,7 +6551,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D13" t="n">
         <v>1.613168707482993</v>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="14">
@@ -6573,7 +6573,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D14" t="n">
         <v>1.613168707482993</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="15">
@@ -6595,7 +6595,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D15" t="n">
         <v>1.613168707482993</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="16">
@@ -6617,7 +6617,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D16" t="n">
         <v>1.613168707482993</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="17">
@@ -6639,7 +6639,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D17" t="n">
         <v>1.613168707482993</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="18">
@@ -6661,7 +6661,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D18" t="n">
         <v>1.613168707482993</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="19">
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="20">
@@ -6705,7 +6705,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D20" t="n">
         <v>1.613168707482993</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="21">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="22">
@@ -6749,16 +6749,16 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="23">
@@ -6771,16 +6771,16 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="24">
@@ -6793,7 +6793,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D24" t="n">
         <v>1.613168707482993</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3626408163265306</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="25">
@@ -6815,7 +6815,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D25" t="n">
         <v>1.613168707482993</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3626408163265306</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="26">
@@ -6837,16 +6837,16 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="27">
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="28">
@@ -6881,7 +6881,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D28" t="n">
         <v>1.613168707482993</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="29">
@@ -6903,7 +6903,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D29" t="n">
         <v>1.613168707482993</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="30">
@@ -6925,7 +6925,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D30" t="n">
         <v>1.613168707482993</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="31">
@@ -6947,7 +6947,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D31" t="n">
         <v>1.613168707482993</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="32">
@@ -6969,7 +6969,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D32" t="n">
         <v>1.613168707482993</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3626408163265305</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="33">
@@ -7032,19 +7032,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -7076,19 +7076,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -7282,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -7323,16 +7323,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.667377595524158e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777779</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
-        <v>7.170829709491803e-15</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999506</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666666</v>
+        <v>0.4527777777777781</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222218</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.075000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777782</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -7455,7 +7455,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D10" t="n">
         <v>1.613168707482993</v>
@@ -7521,7 +7521,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D13" t="n">
         <v>1.613168707482993</v>
@@ -7587,7 +7587,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D16" t="n">
         <v>1.613168707482993</v>
@@ -7606,19 +7606,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="18">
@@ -7631,7 +7631,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D18" t="n">
         <v>1.613168707482993</v>
@@ -7672,19 +7672,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D20" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="21">
@@ -7694,19 +7694,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D21" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="22">
@@ -7719,7 +7719,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D22" t="n">
         <v>1.613168707482993</v>
@@ -7741,7 +7741,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D23" t="n">
         <v>1.613168707482993</v>
@@ -7760,19 +7760,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D24" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="25">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.0122721088435367</v>
       </c>
       <c r="D25" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265262</v>
       </c>
     </row>
     <row r="26">
@@ -7807,7 +7807,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D26" t="n">
         <v>1.613168707482993</v>
@@ -7829,7 +7829,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D27" t="n">
         <v>1.613168707482993</v>
@@ -7873,7 +7873,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D29" t="n">
         <v>1.613168707482993</v>
@@ -7892,19 +7892,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D30" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="31">
@@ -7914,19 +7914,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102039</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353679</v>
       </c>
       <c r="D31" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265267</v>
       </c>
     </row>
     <row r="32">
@@ -7939,7 +7939,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353746</v>
       </c>
       <c r="D32" t="n">
         <v>1.613168707482993</v>
@@ -8002,19 +8002,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -8046,19 +8046,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -8252,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777731</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000001</v>
+        <v>4.074999999999993</v>
       </c>
     </row>
     <row r="3">
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777773</v>
+        <v>0.4527777777777762</v>
       </c>
       <c r="E4" t="n">
-        <v>7.170829709491803e-15</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999994</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666665</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222218</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -8340,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777779</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075000000000025</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -9016,19 +9016,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -9222,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777731</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000005</v>
+        <v>4.074999999999993</v>
       </c>
     </row>
     <row r="3">
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -9266,13 +9266,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777762</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.074999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666667</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222222</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -9310,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777779</v>
+        <v>0.4527777777778041</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.544610236742486e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075000000000025</v>
+        <v>4.074999999999978</v>
       </c>
     </row>
     <row r="7">
@@ -9942,19 +9942,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -9986,19 +9986,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -10192,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777731</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000006</v>
+        <v>4.074999999999992</v>
       </c>
     </row>
     <row r="3">
@@ -10214,13 +10214,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -10236,13 +10236,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777798</v>
+        <v>0.4527777777777843</v>
       </c>
       <c r="E4" t="n">
-        <v>7.303622852260169e-15</v>
+        <v>2.921449140904069e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>4.07499999999999</v>
+        <v>4.074999999999916</v>
       </c>
     </row>
     <row r="5">
@@ -10258,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666665</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222218</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -10912,19 +10912,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -10956,19 +10956,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -11159,16 +11159,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666662</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3622222222222217</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333324</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="3">
@@ -11181,16 +11181,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666662</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3622222222222217</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333323</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -11203,16 +11203,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.716666666666656</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622222222222208</v>
+        <v>0.3622222222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5433333333333312</v>
+        <v>0.543333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -11225,16 +11225,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.512916666666666</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3350555555555555</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5025833333333332</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -11247,16 +11247,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666665</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3622222222222221</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.543333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -12132,13 +12132,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777781</v>
+        <v>0.4527777777777731</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075000000000004</v>
+        <v>4.074999999999992</v>
       </c>
     </row>
     <row r="3">
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -12176,13 +12176,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777762</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075</v>
+        <v>4.074999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -12198,13 +12198,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290416666666665</v>
+        <v>0.4527777777778041</v>
       </c>
       <c r="E5" t="n">
-        <v>3.010972222222218</v>
+        <v>9.544610236742486e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.07499999999987</v>
       </c>
     </row>
     <row r="6">
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -12852,19 +12852,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -12896,19 +12896,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888889</v>
       </c>
     </row>
     <row r="38">
@@ -13099,16 +13099,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666662</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3622222222222217</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333324</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="3">
@@ -13121,16 +13121,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666662</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3622222222222217</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333323</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -13143,16 +13143,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.716666666666656</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622222222222208</v>
+        <v>0.3622222222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5433333333333312</v>
+        <v>0.543333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -13165,16 +13165,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.512916666666665</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3350555555555554</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.502583333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -13187,16 +13187,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666665</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3622222222222221</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.543333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -14069,16 +14069,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716666666666662</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3622222222222217</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5433333333333324</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="3">
@@ -14091,16 +14091,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666662</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3622222222222217</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333323</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -14113,16 +14113,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.716666666666656</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622222222222208</v>
+        <v>0.3622222222222221</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5433333333333312</v>
+        <v>0.543333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -14135,16 +14135,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.512916666666665</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3350555555555554</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.502583333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -14157,16 +14157,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.716666666666666</v>
+        <v>2.716666666666665</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3622222222222221</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.543333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -15042,7 +15042,7 @@
         <v>3.395833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -15061,16 +15061,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.107606318124212</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4143475090832282</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6215212636248421</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -15083,16 +15083,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.716666666666656</v>
+        <v>3.248991774397962</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622222222222208</v>
+        <v>0.4331989032530617</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5433333333333312</v>
+        <v>0.6497983548795924</v>
       </c>
     </row>
     <row r="5">
@@ -15105,16 +15105,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333332</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111109</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666664</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -15127,16 +15127,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.395833333333337</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6791666666666676</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="7">
@@ -15718,19 +15718,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C33" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="34">
@@ -15740,19 +15740,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="35">
@@ -15762,19 +15762,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="36">
@@ -15784,19 +15784,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="37">
@@ -15806,19 +15806,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="38">
@@ -15850,19 +15850,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="40">
@@ -15872,19 +15872,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="41">
@@ -15894,19 +15894,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C41" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="42">
@@ -15916,19 +15916,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C42" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="43">
@@ -15938,19 +15938,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C43" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
   </sheetData>
@@ -16009,16 +16009,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="3">
@@ -16031,16 +16031,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333333</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.5025833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -16053,16 +16053,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.395833333333326</v>
+        <v>3.331607160963241</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4442142881284322</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6791666666666651</v>
+        <v>0.6663214321926482</v>
       </c>
     </row>
     <row r="5">
@@ -16075,16 +16075,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333332</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111109</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666664</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -16100,13 +16100,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -16798,19 +16798,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="39">
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17001,16 +17001,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="4">
@@ -17023,16 +17023,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999998</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="5">
@@ -17045,16 +17045,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333332</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111109</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666664</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -17070,13 +17070,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -17768,19 +17768,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="39">
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17971,16 +17971,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333333</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="4">
@@ -17996,13 +17996,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4527777777777776</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999998</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -18015,16 +18015,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333332</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111109</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666664</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -18040,13 +18040,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -18122,19 +18122,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="11">
@@ -18147,7 +18147,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01227210884353747</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D11" t="n">
         <v>1.613168707482993</v>
@@ -18156,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265308</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="12">
@@ -18188,19 +18188,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="14">
@@ -18232,10 +18232,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325387755102041</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353734</v>
       </c>
       <c r="D15" t="n">
         <v>1.613168707482993</v>
@@ -18244,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265299</v>
       </c>
     </row>
     <row r="16">
@@ -18254,19 +18254,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D16" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265315</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="17">
@@ -18276,19 +18276,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265316</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="18">
@@ -18298,19 +18298,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="19">
@@ -18386,19 +18386,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="23">
@@ -18408,19 +18408,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="24">
@@ -18474,19 +18474,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="27">
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="28">
@@ -18540,19 +18540,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353753</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D29" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265313</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="30">
@@ -18738,19 +18738,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="39">
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18941,16 +18941,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="4">
@@ -18966,13 +18966,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777768</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999991</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -18985,16 +18985,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.192083333333332</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4256111111111109</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6384166666666664</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -19010,13 +19010,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4527777777777784</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.075</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -19092,19 +19092,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="11">
@@ -19117,7 +19117,7 @@
         <v>1.325387755102041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01227210884353747</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D11" t="n">
         <v>1.613168707482993</v>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3626408163265308</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="12">
@@ -19158,19 +19158,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D13" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="14">
@@ -19202,10 +19202,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325387755102041</v>
+        <v>1.32538775510204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353734</v>
       </c>
       <c r="D15" t="n">
         <v>1.613168707482993</v>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265299</v>
       </c>
     </row>
     <row r="16">
@@ -19224,19 +19224,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D16" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3626408163265315</v>
+        <v>0.3626408163265303</v>
       </c>
     </row>
     <row r="17">
@@ -19246,19 +19246,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01227210884353756</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D17" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3626408163265316</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="18">
@@ -19268,19 +19268,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="19">
@@ -19356,19 +19356,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D22" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="23">
@@ -19378,19 +19378,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D23" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3626408163265304</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="24">
@@ -19444,19 +19444,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.325387755102041</v>
+        <v>1.325387755102043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01227210884353741</v>
+        <v>0.01227210884353766</v>
       </c>
       <c r="D26" t="n">
-        <v>1.613168707482993</v>
+        <v>1.613168707482995</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265323</v>
       </c>
     </row>
     <row r="27">
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3626408163265303</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="28">
@@ -19510,19 +19510,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.325387755102042</v>
+        <v>1.325387755102041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01227210884353753</v>
+        <v>0.01227210884353741</v>
       </c>
       <c r="D29" t="n">
-        <v>1.613168707482994</v>
+        <v>1.613168707482993</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3626408163265313</v>
+        <v>0.3626408163265304</v>
       </c>
     </row>
     <row r="30">
@@ -19708,19 +19708,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.003333333333339</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2341111111111125</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2173888888888901</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="39">
